--- a/Log/cp-log.xlsx
+++ b/Log/cp-log.xlsx
@@ -1,30 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25113"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucifer\Documents\GitHub\Competitive-Programming\Log\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7F4D018-888B-45FC-93EF-C2DE42962F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Question</t>
   </si>
@@ -38,13 +49,13 @@
     <t>How It's Done</t>
   </si>
   <si>
+    <t>Need to Remember/Resources</t>
+  </si>
+  <si>
     <t>Product 1 Modulo n</t>
   </si>
   <si>
     <t>number theory</t>
-  </si>
-  <si>
-    <t>Need to Remember/Resources</t>
   </si>
   <si>
     <t>Was trying to find some type of pattern or some type of mathematical relation.</t>
@@ -57,15 +68,76 @@
 would be the answer.</t>
   </si>
   <si>
-    <t xml:space="preserve">link-1
-</t>
+    <t>Read and understand the proof.</t>
+  </si>
+  <si>
+    <t>Yet Another Minimization Problem</t>
+  </si>
+  <si>
+    <t>dp</t>
+  </si>
+  <si>
+    <t>Initially I was trying to minimize the combined
+sum from the backwards still can't prove why
+it is wrong.</t>
+  </si>
+  <si>
+    <t>The requried sum can be represented as
+(n-2)*Σ(a(i)^2+b(i)^2) + (Σa(i))^2 + (Σb(i))^2)
+Now the first part is constant and second part
+can be solved using dp i.e
+let dp(i,w) = true if using i items weight w can
+be achieved then intial state dp[0][0] = true 
+and if dp(i,w) ==  true then
+dp(i+1, w+a[i]) = true, dp(i+1, w+b[i]) = true
+Now calculate all sums from nth row and take min.</t>
+  </si>
+  <si>
+    <t>Permutation By Sum</t>
+  </si>
+  <si>
+    <t>greedy, dp(i think not sure)</t>
+  </si>
+  <si>
+    <t>I thought it by dp somewhat similar to subset
+sum problem didn't implemented it though</t>
+  </si>
+  <si>
+    <t>Greedy approach is used in this problem in which
+min and max sum possible is calculated and 
+again going in reverse order we see if subtraction 
+curr number can we make remaining sum using 
+currLen-1 numbers and that can be calculated using same min approach.</t>
+  </si>
+  <si>
+    <t>Done using greedy that was in editorial.
+Try using subset sum dp approach that
+was mine original thought process.</t>
+  </si>
+  <si>
+    <t>Min Cost String</t>
+  </si>
+  <si>
+    <t>greedy, constructive algo.,</t>
+  </si>
+  <si>
+    <t>The question was revolving around finding the 
+right pattern and that was clear from the start.</t>
+  </si>
+  <si>
+    <t>Couldn't found the pattern but there is a nice 
+proof using eulerians cycles. Nevertheless same
+pattern was used in the test cases.</t>
+  </si>
+  <si>
+    <t>https://imgur.com/a/1TJj88L</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,15 +185,17 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -139,6 +213,125 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2809875</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>781050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="514350" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9505950" y="1171575"/>
+          <a:ext cx="514350" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100"/>
+            <a:t>link-1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1619250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5943600" y="1871662"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -403,45 +596,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="41.7109375" customWidth="1"/>
-    <col min="4" max="4" width="42.85546875" customWidth="1"/>
-    <col min="5" max="5" width="42.28515625" customWidth="1"/>
+    <col min="1" max="1" width="32.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="42.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37.85546875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="15.75">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="105">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -449,16 +643,68 @@
       <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="150">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="135">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="60">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2" display="link-1"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A5" r:id="rId3" xr:uid="{A4B217DF-1ED3-4B23-911C-A9797CB39DE0}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{5066F79C-77CC-4A10-9D88-2116D19252B7}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{27835BD2-0959-45E1-BE62-111BA465A82C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
--- a/Log/cp-log.xlsx
+++ b/Log/cp-log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25122"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucifer\Documents\GitHub\Competitive-Programming\Log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7F4D018-888B-45FC-93EF-C2DE42962F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2C9AE8A-E23D-4637-8930-980AF53821DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Question</t>
   </si>
@@ -68,7 +68,8 @@
 would be the answer.</t>
   </si>
   <si>
-    <t>Read and understand the proof.</t>
+    <t>Read and understand the proof.
+https://math.stackexchange.com/questions/441667/the-product-of-integers-relatively-prime-to-n-congruent-to-pm-1-pmod-n</t>
   </si>
   <si>
     <t>Yet Another Minimization Problem</t>
@@ -131,6 +132,54 @@
   </si>
   <si>
     <t>https://imgur.com/a/1TJj88L</t>
+  </si>
+  <si>
+    <t>Eastern Exhibition</t>
+  </si>
+  <si>
+    <t>sorting, binary search</t>
+  </si>
+  <si>
+    <t>Thought the correct way of dividing the 
+problem in x and y axis separately. But implemented O(n) way in calculating the number of lines such that sum is minimum.</t>
+  </si>
+  <si>
+    <t>To calculate the number of lines we can sort the
+coordinates and take the number of lines
+between right and left median it will have the
+minimum sum.
+This can be also done using binary search.</t>
+  </si>
+  <si>
+    <t>Second part of the problem is a variation of standard  problem known as closest pairs of points problem in 1D.
+https://stackoverflow.com/questions/35973950/find-a-number-for-minimum-sum-of-absolute-difference-in-an-array
+https://en.wikipedia.org/wiki/Closest_pair_of_points_problem
+https://math.stackexchange.com/questions/113270/the-median-minimizes-the-sum-of-absolute-deviations-the-ell-1-norm</t>
+  </si>
+  <si>
+    <t>Nearest Excluded Points</t>
+  </si>
+  <si>
+    <t>bfs, binary search</t>
+  </si>
+  <si>
+    <t>Was trying to divide the problem in the 2 - axis
+and finding the nearest points then but that is 
+very wrong.</t>
+  </si>
+  <si>
+    <t>Now for each coordinate if there is a adjacent 
+point empty then we the ans would be that also
+if a a point does not have adj. point empty then
+ans would be the same as the adj. coordinate
+this could be verified diagramatically. Hence we 
+could do a simple bfs putting the empty adjacent
+points in the queue first then running bfs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is also a binary search solution 
+(which i am not understood yet) most of all
+bfs would only run if </t>
   </si>
 </sst>
 </file>
@@ -217,65 +266,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2809875</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>781050</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="514350" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9505950" y="1171575"/>
-          <a:ext cx="514350" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1100"/>
-            <a:t>link-1</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -597,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -630,7 +620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="105">
+    <row r="3" spans="1:5" ht="150">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -643,7 +633,7 @@
       <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -693,6 +683,40 @@
       </c>
       <c r="E6" s="2" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="330">
+      <c r="A7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="165">
+      <c r="A8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -702,9 +726,11 @@
     <hyperlink ref="A5" r:id="rId3" xr:uid="{A4B217DF-1ED3-4B23-911C-A9797CB39DE0}"/>
     <hyperlink ref="E6" r:id="rId4" xr:uid="{5066F79C-77CC-4A10-9D88-2116D19252B7}"/>
     <hyperlink ref="A6" r:id="rId5" xr:uid="{27835BD2-0959-45E1-BE62-111BA465A82C}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{F79D4152-2F53-4754-B9C2-32A0FFFC397B}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{D6E634AD-71FE-4ECD-AE41-A5911BD72065}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
-  <drawing r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <drawing r:id="rId9"/>
 </worksheet>
 </file>